--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\DUMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6700055F-396B-4D54-BB46-79596EDAA7B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942072B-43FD-4E69-B472-AB02AF508286}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -31,9 +31,6 @@
     <t>ROE (%)</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>ROCE (%)</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>FR_PBIDTM(%)</t>
   </si>
   <si>
-    <t>P/B</t>
-  </si>
-  <si>
     <t>FR_PATM(%)</t>
   </si>
   <si>
@@ -71,12 +65,27 @@
   </si>
   <si>
     <t>FR_PATM (%)</t>
+  </si>
+  <si>
+    <t>Div/Yield</t>
+  </si>
+  <si>
+    <t>PATM (%)</t>
+  </si>
+  <si>
+    <t>OCF</t>
+  </si>
+  <si>
+    <t>Cons OCF</t>
+  </si>
+  <si>
+    <t>Cons PAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -911,11 +920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,21 +977,30 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -990,7 +1008,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -998,55 +1019,68 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1378,5 +1412,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942072B-43FD-4E69-B472-AB02AF508286}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED734BA-4985-4AC2-A679-8AF00B420D2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -40,15 +40,9 @@
     <t>Asset Turnover(x)</t>
   </si>
   <si>
-    <t>Div/ Yeild</t>
-  </si>
-  <si>
     <t>FR_PBIDTM(%)</t>
   </si>
   <si>
-    <t>FR_PATM(%)</t>
-  </si>
-  <si>
     <t>M/Sales</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>FR_PATM (%)</t>
   </si>
   <si>
-    <t>Div/Yield</t>
-  </si>
-  <si>
     <t>PATM (%)</t>
   </si>
   <si>
@@ -80,13 +71,28 @@
   </si>
   <si>
     <t>Cons PAT</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>FR_Dividend Pay Out Ratio(%)</t>
+  </si>
+  <si>
+    <t>PL_Operating Profit (Excl OI)</t>
+  </si>
+  <si>
+    <t>Free Float</t>
+  </si>
+  <si>
+    <t>PAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +226,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -563,9 +593,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -924,7 +966,7 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,8 +1019,8 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -994,7 +1036,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1005,54 +1047,54 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1063,24 +1105,24 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED734BA-4985-4AC2-A679-8AF00B420D2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A7312A-7161-4817-9E3C-C5C58181C322}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>PAT</t>
+  </si>
+  <si>
+    <t>Net Sales | ROE(%) | ROCE(%) | Asset Turnover(x) | Free Float</t>
+  </si>
+  <si>
+    <t>Net Sales | Cons OCF | ROCE(%) |Cons PAT | FR_Dividend Pay Out Ratio(%)</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +436,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -593,7 +611,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,6 +625,13 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -965,13 +990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2010</v>
       </c>
@@ -1009,7 +1034,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1125,334 +1150,355 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A7312A-7161-4817-9E3C-C5C58181C322}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E9B862-0AE6-4EC7-A37A-BE235DE59C06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Net Sales | Cons OCF | ROCE(%) |Cons PAT | FR_Dividend Pay Out Ratio(%)</t>
+  </si>
+  <si>
+    <t>PBIDTM(%)</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +450,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +620,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,11 +636,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -990,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1047,6 +1061,9 @@
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1058,6 +1075,9 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1069,6 +1089,9 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1080,6 +1103,9 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1091,6 +1117,14 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1105,6 +1139,9 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1116,6 +1153,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1127,6 +1167,9 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1138,6 +1181,9 @@
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1147,6 +1193,9 @@
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1163,65 +1212,77 @@
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,9 +1556,10 @@
       <c r="A122" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E9B862-0AE6-4EC7-A37A-BE235DE59C06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1803F0-AFE7-4EEB-8CC0-F95CC40D4CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1803F0-AFE7-4EEB-8CC0-F95CC40D4CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17389D-660A-457D-B88E-2122ECC6F7AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +259,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="36">
@@ -620,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,6 +652,18 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1002,287 +1020,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2010</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2011</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>2012</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>2013</v>
       </c>
-      <c r="F1">
+      <c r="J1">
         <v>2014</v>
       </c>
-      <c r="G1">
+      <c r="K1">
         <v>2015</v>
       </c>
-      <c r="H1">
+      <c r="L1">
         <v>2016</v>
       </c>
-      <c r="I1">
+      <c r="M1">
         <v>2017</v>
       </c>
-      <c r="J1">
+      <c r="N1">
         <v>2018</v>
       </c>
-      <c r="K1">
+      <c r="O1">
         <v>2019</v>
       </c>
-      <c r="L1">
+      <c r="P1">
         <v>2020</v>
       </c>
-      <c r="M1">
+      <c r="Q1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="14">
+        <v>0.26941300000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.217417</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.204462</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.24557799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C3" s="14">
+        <v>0.18924299999999999</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14">
+        <v>0.127891</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.18454699999999999</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.16948299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.112663</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.111036</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.16886000000000001</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="14">
+        <v>0.16720699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
+      <c r="C5" s="14">
+        <v>0.10771600000000001</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="14">
+        <v>0.11074299999999999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.151119</v>
+      </c>
+      <c r="H5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="I5" s="14">
+        <v>0.164546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14">
+        <v>6.7022999999999999E-2</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="14">
+        <v>7.9580999999999999E-2</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14">
+        <v>0.118437</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.15978600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.15704599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.39664700000000003</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.53973199999999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.39655600000000002</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.35891600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.39654899999999998</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.47835699999999998</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.37610500000000002</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.33657999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
+      <c r="C11" s="14">
+        <v>0.25202999999999998</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="14">
+        <v>0.27761799999999998</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.34343000000000001</v>
+      </c>
+      <c r="H11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="14">
+        <v>0.29471000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.169793</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="E12" s="14">
+        <v>0.24079700000000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.288966</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.28757300000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.16755400000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.23208400000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.26922099999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.201822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,9 +1714,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17389D-660A-457D-B88E-2122ECC6F7AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F08DE9-5BB1-4A30-949D-6B03053AAC70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,36 +238,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,21 +636,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -653,17 +651,30 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1022,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1070,341 +1081,341 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="8">
         <v>0.26941300000000001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="8">
         <v>0.217417</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="8">
         <v>0.204462</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="8">
         <v>0.24557799999999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>0.18924299999999999</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>0.127891</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="8">
         <v>0.18454699999999999</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <v>0.16948299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>0.112663</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="8">
         <v>0.111036</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="8">
         <v>0.16886000000000001</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="8">
         <v>0.16720699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>0.10771600000000001</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="8">
         <v>0.11074299999999999</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="8">
         <v>0.151119</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="8">
         <v>0.164546</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>6.7022999999999999E-2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="8">
         <v>7.9580999999999999E-2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="8">
         <v>0.118437</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="8">
         <v>0.15978600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+      <c r="H7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="8">
         <v>0.15704599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="15"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>0.39664700000000003</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="8">
         <v>0.53973199999999999</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="8">
         <v>0.39655600000000002</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="8">
         <v>0.35891600000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>0.39654899999999998</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="8">
         <v>0.47835699999999998</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="8">
         <v>0.37610500000000002</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="8">
         <v>0.33657999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>0.25202999999999998</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="8">
         <v>0.27761799999999998</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="8">
         <v>0.34343000000000001</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="8">
         <v>0.29471000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="8">
         <v>0.169793</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="8">
         <v>0.24079700000000001</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="8">
         <v>0.288966</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="8">
         <v>0.28757300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <v>0.16755400000000001</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="8">
         <v>0.23208400000000001</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="8">
         <v>0.26922099999999999</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="8">
         <v>0.201822</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F08DE9-5BB1-4A30-949D-6B03053AAC70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037301E2-C1EF-4BC9-A036-DE2B08DF358B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -636,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -657,12 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,6 +677,13 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1031,15 +1039,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2010</v>
       </c>
@@ -1055,306 +1063,366 @@
       <c r="J1">
         <v>2014</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2015</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2016</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2017</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2018</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2019</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2020</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8">
         <v>0.26941300000000001</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8">
         <v>0.217417</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="8">
         <v>0.204462</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="8">
         <v>0.24557799999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0.12884799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="8">
         <v>0.18924299999999999</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="8">
         <v>0.127891</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="8">
         <v>0.18454699999999999</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="8">
         <v>0.16948299999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="J3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17">
+        <v>6.8411E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="8">
         <v>0.112663</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="8">
         <v>0.111036</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="8">
         <v>0.16886000000000001</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="8">
         <v>0.16720699999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="J4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="17">
+        <v>5.2921999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8">
         <v>0.10771600000000001</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="8">
         <v>0.11074299999999999</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="8">
         <v>0.151119</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="8">
         <v>0.164546</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="J5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="17">
+        <v>3.5106999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="8">
         <v>6.7022999999999999E-2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="8">
         <v>7.9580999999999999E-2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="8">
         <v>0.118437</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="8">
         <v>0.15978600000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="12" t="s">
+      <c r="J6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="17">
+        <v>3.2009000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="8">
         <v>0.15704599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8">
         <v>0.39664700000000003</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="8">
         <v>0.53973199999999999</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="8">
         <v>0.39655600000000002</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="8">
         <v>0.35891600000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="J9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.31676599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>0.39654899999999998</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="8">
         <v>0.47835699999999998</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8">
         <v>0.37610500000000002</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>0.33657999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.277223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="8">
         <v>0.25202999999999998</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="8">
         <v>0.27761799999999998</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="8">
         <v>0.34343000000000001</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="8">
         <v>0.29471000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="J11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.23738799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8">
         <v>0.169793</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="8">
         <v>0.24079700000000001</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="8">
         <v>0.288966</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
         <v>0.28757300000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="J12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0.223798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="8">
         <v>0.16755400000000001</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="8">
         <v>0.23208400000000001</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="8">
         <v>0.26922099999999999</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="8">
         <v>0.201822</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0.214393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1362,36 +1430,36 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>22</v>
@@ -1404,53 +1472,77 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,10 +1816,11 @@
       <c r="A122" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Desktop\Stock-market-predictor-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037301E2-C1EF-4BC9-A036-DE2B08DF358B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4229E8-7D51-4975-90A6-E07B7873695F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -102,13 +102,16 @@
   </si>
   <si>
     <t>PBIDTM(%)</t>
+  </si>
+  <si>
+    <t>Total Debt/Equity(x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +279,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="37">
@@ -643,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -677,13 +687,14 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,10 +1125,10 @@
         <v>0.24557799999999999</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0.12884799999999999</v>
+        <v>2</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0.14013900000000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,10 +1157,10 @@
         <v>0.16948299999999999</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17">
-        <v>6.8411E-2</v>
+        <v>13</v>
+      </c>
+      <c r="K3" s="15">
+        <v>8.9484999999999995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,10 +1189,10 @@
         <v>0.16720699999999999</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="17">
-        <v>5.2921999999999997E-2</v>
+        <v>9</v>
+      </c>
+      <c r="K4" s="15">
+        <v>8.6527000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,14 +1220,14 @@
       <c r="I5" s="8">
         <v>0.164546</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="17">
-        <v>3.5106999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="15">
+        <v>7.8437000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1241,11 +1252,11 @@
       <c r="I6" s="8">
         <v>0.15978600000000001</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="17">
-        <v>3.2009000000000003E-2</v>
+      <c r="J6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="15">
+        <v>7.4213000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1301,7 @@
       <c r="J9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <v>0.31676599999999999</v>
       </c>
     </row>
@@ -1322,7 +1333,7 @@
       <c r="J10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <v>0.277223</v>
       </c>
     </row>
@@ -1354,7 +1365,7 @@
       <c r="J11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <v>0.23738799999999999</v>
       </c>
     </row>
@@ -1386,7 +1397,7 @@
       <c r="J12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <v>0.223798</v>
       </c>
     </row>
@@ -1418,7 +1429,7 @@
       <c r="J13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="15">
         <v>0.214393</v>
       </c>
     </row>
@@ -1434,26 +1445,26 @@
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,13 +1485,13 @@
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1505,13 +1516,13 @@
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Desktop\Stock-market-predictor-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4229E8-7D51-4975-90A6-E07B7873695F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366BE5A-0894-434F-8F4A-4CE4B10CBB46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -102,15 +102,15 @@
   </si>
   <si>
     <t>PBIDTM(%)</t>
-  </si>
-  <si>
-    <t>Total Debt/Equity(x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,7 +609,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -652,8 +652,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -668,12 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -687,16 +682,23 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -724,6 +726,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1052,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1100,336 +1103,344 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="16">
         <v>0.26941300000000001</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="16">
         <v>0.217417</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="16">
         <v>0.204462</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="16">
         <v>0.24557799999999999</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="19">
         <v>0.14013900000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="16">
         <v>0.18924299999999999</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="16">
         <v>0.127891</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="16">
         <v>0.18454699999999999</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="16">
         <v>0.16948299999999999</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="19">
+        <v>9.2246999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.112663</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.111036</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.16886000000000001</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.16720699999999999</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K4" s="19">
         <v>8.9484999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.10771600000000001</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.11074299999999999</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8">
-        <v>0.112663</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="G5" s="16">
+        <v>0.151119</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.164546</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="19">
+        <v>8.6527000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16">
+        <v>6.7022999999999999E-2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="16">
+        <v>7.9580999999999999E-2</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.111036</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="G6" s="16">
+        <v>0.118437</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.15978600000000001</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="19">
+        <v>7.8437000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8">
-        <v>0.16886000000000001</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.16720699999999999</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="15">
-        <v>8.6527000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.10771600000000001</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.11074299999999999</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.151119</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.164546</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="15">
-        <v>7.8437000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8">
-        <v>6.7022999999999999E-2</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8">
-        <v>7.9580999999999999E-2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.118437</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.15978600000000001</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="15">
-        <v>7.4213000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="I7" s="16">
         <v>0.15704599999999999</v>
       </c>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="9"/>
+      <c r="C8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="16">
         <v>0.39664700000000003</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="16">
         <v>0.53973199999999999</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="16">
         <v>0.39655600000000002</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="16">
         <v>0.35891600000000001</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="19">
         <v>0.31676599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="16">
         <v>0.39654899999999998</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="16">
         <v>0.47835699999999998</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="16">
         <v>0.37610500000000002</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="16">
         <v>0.33657999999999999</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="19">
         <v>0.277223</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="16">
         <v>0.25202999999999998</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="16">
         <v>0.27761799999999998</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="16">
         <v>0.34343000000000001</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="16">
         <v>0.29471000000000003</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="19">
         <v>0.23738799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="16">
         <v>0.169793</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="16">
         <v>0.24079700000000001</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="16">
         <v>0.288966</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="16">
         <v>0.28757300000000002</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="19">
         <v>0.223798</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="16">
         <v>0.16755400000000001</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="16">
         <v>0.23208400000000001</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="16">
         <v>0.26922099999999999</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="16">
         <v>0.201822</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="19">
         <v>0.214393</v>
       </c>
     </row>
@@ -1445,26 +1456,26 @@
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,13 +1496,13 @@
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1516,13 +1527,13 @@
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Desktop\Stock-market-predictor-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366BE5A-0894-434F-8F4A-4CE4B10CBB46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC23E28-73E9-4D3D-9C34-A2E9CFFE8883}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -95,13 +95,16 @@
     <t>PAT</t>
   </si>
   <si>
-    <t>Net Sales | ROE(%) | ROCE(%) | Asset Turnover(x) | Free Float</t>
-  </si>
-  <si>
-    <t>Net Sales | Cons OCF | ROCE(%) |Cons PAT | FR_Dividend Pay Out Ratio(%)</t>
-  </si>
-  <si>
     <t>PBIDTM(%)</t>
+  </si>
+  <si>
+    <t>3  Years Combined</t>
+  </si>
+  <si>
+    <t>5  Years Combined</t>
+  </si>
+  <si>
+    <t>4  Years Combined</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +290,16 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,18 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,49 +653,53 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,797 +1056,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="23.85546875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1">
+      <c r="B1" s="2">
         <v>2010</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>2011</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>2012</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>2013</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>2014</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>2015</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>2016</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2">
         <v>2017</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2">
         <v>2018</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="2">
         <v>2019</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="2">
         <v>2020</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
-        <v>0.26941300000000001</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="1">
+        <v>-0.26941300000000001</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="1">
         <v>0.217417</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="1">
         <v>0.204462</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="16">
-        <v>0.24557799999999999</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="1">
+        <v>-0.24557799999999999</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="19">
-        <v>0.14013900000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="K2" s="1">
+        <v>-0.14013900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16">
-        <v>0.18924299999999999</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="1">
+        <v>-0.18924299999999999</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="1">
         <v>0.127891</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="1">
         <v>0.18454699999999999</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="1">
         <v>0.16948299999999999</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="19">
-        <v>9.2246999999999996E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="K3" s="1">
+        <v>-9.2246999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16">
-        <v>0.112663</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="1">
+        <v>-0.112663</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16">
-        <v>0.111036</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="1">
+        <v>-0.111036</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="1">
         <v>0.16886000000000001</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.16720699999999999</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-8.9484999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.10771600000000001</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.11074299999999999</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.151119</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.164546</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.6527000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.7022999999999999E-2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.9580999999999999E-2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.118437</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.15978600000000001</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-7.8437000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.15704599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.39664700000000003</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.53973199999999999</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.39655600000000002</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.35891600000000001</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.31676599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.39654899999999998</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.47835699999999998</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.37610500000000002</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.33657999999999999</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.277223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.25202999999999998</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.27761799999999998</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.34343000000000001</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.29471000000000003</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.23738799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.169793</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.24079700000000001</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.288966</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.28757300000000002</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.223798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.16755400000000001</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.23208400000000001</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.26922099999999999</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.201822</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.214393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="16">
-        <v>0.16720699999999999</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="19">
-        <v>8.9484999999999995E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.10771600000000001</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.112508</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-0.142813</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-0.13536599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.107583</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.10609</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.108915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16">
-        <v>0.11074299999999999</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="G20" s="1">
+        <v>0.101725</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.101352</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.105127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-9.0615000000000001E-2</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9.4137999999999999E-2</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>8.8361999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.6676999999999995E-2</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8.1946000000000005E-2</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14">
+        <v>-7.0223999999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.31809300000000001</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.29738900000000001</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.27674599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.233623</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.23094400000000001</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.20748900000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.17322799999999999</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="16">
-        <v>0.151119</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.164546</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I27" s="1">
+        <v>0.194052</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.20330300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.162879</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.18710299999999999</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.158442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="19">
-        <v>8.6527000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="16">
-        <v>6.7022999999999999E-2</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="16">
-        <v>7.9580999999999999E-2</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.118437</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G29" s="1">
+        <v>0.14757100000000001</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="16">
-        <v>0.15978600000000001</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="19">
-        <v>7.8437000000000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0.15704599999999999</v>
-      </c>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.39664700000000003</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.53973199999999999</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.39655600000000002</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0.35891600000000001</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.31676599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.39654899999999998</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.47835699999999998</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.37610500000000002</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.33657999999999999</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0.277223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.25202999999999998</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0.27761799999999998</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.34343000000000001</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0.29471000000000003</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="I29" s="1">
+        <v>0.15393899999999999</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="19">
-        <v>0.23738799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.169793</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0.24079700000000001</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.288966</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0.28757300000000002</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0.223798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.16755400000000001</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0.23208400000000001</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.26922099999999999</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0.201822</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0.214393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="K29" s="1">
+        <v>0.15477399999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:F23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/factor_record.xlsx
+++ b/factor_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern 1\Desktop\intern_work\Stock-market-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC23E28-73E9-4D3D-9C34-A2E9CFFE8883}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF0E05-3116-4AEA-9AC9-589AA8EAB386}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
   <si>
     <t>Ev/EBIDTA</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>4  Years Combined</t>
+  </si>
+  <si>
+    <t>5 YR PAT CAGR</t>
+  </si>
+  <si>
+    <t>5 YR Sales CAGR</t>
+  </si>
+  <si>
+    <t>Dividend Pay Out Ratio(%)</t>
   </si>
 </sst>
 </file>
@@ -653,7 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,6 +707,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,18 +1072,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="23.85546875" style="2"/>
+    <col min="1" max="12" width="23.85546875" style="2"/>
+    <col min="13" max="13" width="21.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="23.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2010</v>
       </c>
@@ -1086,26 +1105,26 @@
       <c r="L1" s="2">
         <v>2015</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>2016</v>
       </c>
-      <c r="N1" s="2">
+      <c r="P1" s="2">
         <v>2017</v>
       </c>
-      <c r="O1" s="2">
+      <c r="Q1" s="2">
         <v>2018</v>
       </c>
-      <c r="P1" s="2">
+      <c r="R1" s="2">
         <v>2019</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="S1" s="2">
         <v>2020</v>
       </c>
-      <c r="R1" s="2">
+      <c r="T1" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1158,20 @@
       <c r="K2" s="1">
         <v>-0.14013900000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="18">
+        <v>-0.22220300000000001</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.176732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1172,8 +1203,20 @@
       <c r="K3" s="1">
         <v>-9.2246999999999996E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.209427</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-0.15969700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -1205,8 +1248,20 @@
       <c r="K4" s="1">
         <v>-8.9484999999999995E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>-0.19237699999999999</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-0.134104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1238,8 +1293,20 @@
       <c r="K5" s="1">
         <v>8.6527000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="18">
+        <v>-9.4114000000000003E-2</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.125886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>17</v>
@@ -1271,8 +1338,20 @@
       <c r="K6" s="1">
         <v>-7.8437000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="18">
+        <v>-9.0991000000000002E-2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="H7" s="5" t="s">
         <v>2</v>
@@ -1281,10 +1360,10 @@
         <v>-0.15704599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1318,8 +1397,20 @@
       <c r="K9" s="1">
         <v>0.31676599999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.466173</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.431921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
@@ -1351,8 +1442,20 @@
       <c r="K10" s="1">
         <v>0.277223</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.38258700000000001</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.29641200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -1384,8 +1487,20 @@
       <c r="K11" s="1">
         <v>0.23738799999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.31961899999999999</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.28455900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -1417,8 +1532,20 @@
       <c r="K12" s="1">
         <v>0.223798</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.28140799999999999</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.221221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -1450,14 +1577,28 @@
       <c r="K13" s="1">
         <v>0.214393</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.27904699999999999</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.208535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1468,8 +1609,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1486,8 +1628,9 @@
         <v>24</v>
       </c>
       <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -1513,8 +1656,9 @@
       <c r="K18" s="3">
         <v>-0.13536599999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1538,8 +1682,9 @@
       <c r="K19" s="1">
         <v>0.108915</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1563,8 +1708,9 @@
       <c r="K20" s="1">
         <v>0.105127</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1588,8 +1734,9 @@
       <c r="K21" s="1">
         <v>8.8361999999999996E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1613,8 +1760,9 @@
       <c r="K22" s="14">
         <v>-7.0223999999999995E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1625,8 +1773,12 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -1648,8 +1800,9 @@
       <c r="K25" s="1">
         <v>0.27674599999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="12" t="s">
         <v>15</v>
       </c>
@@ -1668,8 +1821,9 @@
       <c r="K26" s="1">
         <v>0.20748900000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="12" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1843,7 @@
         <v>0.20330300000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="13" t="s">
         <v>18</v>
       </c>
@@ -1709,7 +1863,7 @@
         <v>0.158442</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="12" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1883,7 @@
         <v>0.15477399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
